--- a/SEAS 6414/zillow_data_dictionary.xlsx
+++ b/SEAS 6414/zillow_data_dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhe/zdabh/kaggle/published_to_kaggle/kaggle_publish_history/2017-05-04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\github\GWU\SEAS 6414\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7EF630-EC75-4F52-B2FA-C62A0559247E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16900" yWindow="-20780" windowWidth="27600" windowHeight="15880"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="5" r:id="rId1"/>
@@ -22,25 +23,37 @@
     <sheet name="BuildingClassTypeID" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Dictionary'!$A$1:$N$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PropertyLandUseTypeID!$A$1:$B$26</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="343">
   <si>
     <t>StoryTypeID</t>
   </si>
@@ -844,12 +857,237 @@
   </si>
   <si>
     <t>'taxdelinquencyflag'</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Missing OK</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID Tab</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Not Missing</t>
+  </si>
+  <si>
+    <t>MCAR</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MNAR</t>
+  </si>
+  <si>
+    <t>parcelid</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>propertylandusetypeid</t>
+  </si>
+  <si>
+    <t>rawcensustractandblock</t>
+  </si>
+  <si>
+    <t>regionidcounty</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>roomcnt</t>
+  </si>
+  <si>
+    <t>bedroomcnt</t>
+  </si>
+  <si>
+    <t>bathroomcnt</t>
+  </si>
+  <si>
+    <t>assessmentyear</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>propertycountylandusecode</t>
+  </si>
+  <si>
+    <t>regionidzip</t>
+  </si>
+  <si>
+    <t>taxamount</t>
+  </si>
+  <si>
+    <t>taxvaluedollarcnt</t>
+  </si>
+  <si>
+    <t>structuretaxvaluedollarcnt</t>
+  </si>
+  <si>
+    <t>calculatedfinishedsquarefeet</t>
+  </si>
+  <si>
+    <t>yearbuilt</t>
+  </si>
+  <si>
+    <t>regionidcity</t>
+  </si>
+  <si>
+    <t>landtaxvaluedollarcnt</t>
+  </si>
+  <si>
+    <t>censustractandblock</t>
+  </si>
+  <si>
+    <t>fullbathcnt</t>
+  </si>
+  <si>
+    <t>calculatedbathnbr</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet12</t>
+  </si>
+  <si>
+    <t>lotsizesquarefeet</t>
+  </si>
+  <si>
+    <t>unitcnt</t>
+  </si>
+  <si>
+    <t>propertyzoningdesc</t>
+  </si>
+  <si>
+    <t>buildingqualitytypeid</t>
+  </si>
+  <si>
+    <t>heatingorsystemtypeid</t>
+  </si>
+  <si>
+    <t>regionidneighborhood</t>
+  </si>
+  <si>
+    <t>garagecarcnt</t>
+  </si>
+  <si>
+    <t>garagetotalsqft</t>
+  </si>
+  <si>
+    <t>airconditioningtypeid</t>
+  </si>
+  <si>
+    <t>numberofstories</t>
+  </si>
+  <si>
+    <t>poolcnt</t>
+  </si>
+  <si>
+    <t>pooltypeid7</t>
+  </si>
+  <si>
+    <t>threequarterbathnbr</t>
+  </si>
+  <si>
+    <t>fireplacecnt</t>
+  </si>
+  <si>
+    <t>finishedfloor1squarefeet</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet50</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet15</t>
+  </si>
+  <si>
+    <t>yardbuildingsqft17</t>
+  </si>
+  <si>
+    <t>taxdelinquencyflag</t>
+  </si>
+  <si>
+    <t>taxdelinquencyyear</t>
+  </si>
+  <si>
+    <t>hashottuborspa</t>
+  </si>
+  <si>
+    <t>pooltypeid2</t>
+  </si>
+  <si>
+    <t>poolsizesum</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet6</t>
+  </si>
+  <si>
+    <t>decktypeid</t>
+  </si>
+  <si>
+    <t>pooltypeid10</t>
+  </si>
+  <si>
+    <t>buildingclasstypeid</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet13</t>
+  </si>
+  <si>
+    <t>typeconstructiontypeid</t>
+  </si>
+  <si>
+    <t>architecturalstyletypeid</t>
+  </si>
+  <si>
+    <t>yardbuildingsqft26</t>
+  </si>
+  <si>
+    <t>fireplaceflag</t>
+  </si>
+  <si>
+    <t>basementsqft</t>
+  </si>
+  <si>
+    <t>storytypeid</t>
+  </si>
+  <si>
+    <t>Too Much Missing</t>
+  </si>
+  <si>
+    <t>Missing Count</t>
+  </si>
+  <si>
+    <t>Missing Percent</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Get from address</t>
+  </si>
+  <si>
+    <t>Get from Calculated square feet</t>
+  </si>
+  <si>
+    <t>Do not impute</t>
+  </si>
+  <si>
+    <t>Impute from address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1160,507 +1398,1404 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="55.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>125</v>
       </c>
       <c r="B1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" t="s">
+        <v>286</v>
+      </c>
+      <c r="M3">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L4" t="s">
+        <v>285</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L5" t="s">
+        <v>284</v>
+      </c>
+      <c r="M5">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" t="s">
+        <v>268</v>
+      </c>
+      <c r="L6" t="s">
+        <v>278</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" t="s">
+        <v>268</v>
+      </c>
+      <c r="L8" t="s">
+        <v>282</v>
+      </c>
+      <c r="M8">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>268</v>
+      </c>
+      <c r="L9" t="s">
+        <v>279</v>
+      </c>
+      <c r="M9">
+        <v>13</v>
+      </c>
+      <c r="N9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L10" t="s">
+        <v>280</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" t="s">
+        <v>268</v>
+      </c>
+      <c r="L11" t="s">
+        <v>281</v>
+      </c>
+      <c r="M11">
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>268</v>
+      </c>
+      <c r="L12" t="s">
+        <v>283</v>
+      </c>
+      <c r="M12">
+        <v>13</v>
+      </c>
+      <c r="N12">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>268</v>
+      </c>
+      <c r="L13" t="s">
+        <v>288</v>
+      </c>
+      <c r="M13">
+        <v>14</v>
+      </c>
+      <c r="N13">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L14" t="s">
+        <v>289</v>
+      </c>
+      <c r="M14">
+        <v>42</v>
+      </c>
+      <c r="N14">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" t="s">
+        <v>268</v>
+      </c>
+      <c r="L15" t="s">
+        <v>290</v>
+      </c>
+      <c r="M15">
+        <v>66</v>
+      </c>
+      <c r="N15">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" t="s">
+        <v>268</v>
+      </c>
+      <c r="L16" t="s">
+        <v>291</v>
+      </c>
+      <c r="M16">
+        <v>119</v>
+      </c>
+      <c r="N16">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" t="s">
+        <v>268</v>
+      </c>
+      <c r="L17" t="s">
+        <v>292</v>
+      </c>
+      <c r="M17">
+        <v>144</v>
+      </c>
+      <c r="N17">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" t="s">
+        <v>268</v>
+      </c>
+      <c r="L18" t="s">
+        <v>293</v>
+      </c>
+      <c r="M18">
+        <v>149</v>
+      </c>
+      <c r="N18">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" t="s">
+        <v>268</v>
+      </c>
+      <c r="L19" t="s">
+        <v>294</v>
+      </c>
+      <c r="M19">
+        <v>166</v>
+      </c>
+      <c r="N19">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>268</v>
+      </c>
+      <c r="L20" t="s">
+        <v>296</v>
+      </c>
+      <c r="M20">
+        <v>210</v>
+      </c>
+      <c r="N20">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F21" t="s">
+        <v>268</v>
+      </c>
+      <c r="L21" t="s">
+        <v>295</v>
+      </c>
+      <c r="M21">
+        <v>210</v>
+      </c>
+      <c r="N21">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" t="s">
+        <v>268</v>
+      </c>
+      <c r="L22" t="s">
+        <v>297</v>
+      </c>
+      <c r="M22">
+        <v>240</v>
+      </c>
+      <c r="N22">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>268</v>
+      </c>
+      <c r="L23" t="s">
+        <v>299</v>
+      </c>
+      <c r="M23">
+        <v>388</v>
+      </c>
+      <c r="N23">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" t="s">
+        <v>268</v>
+      </c>
+      <c r="L24" t="s">
+        <v>298</v>
+      </c>
+      <c r="M24">
+        <v>388</v>
+      </c>
+      <c r="N24">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s">
+        <v>340</v>
+      </c>
+      <c r="L25" t="s">
+        <v>300</v>
+      </c>
+      <c r="M25">
+        <v>859</v>
+      </c>
+      <c r="N25">
+        <v>8.59</v>
+      </c>
+      <c r="P25" t="str">
+        <f>"print(    "&amp;L25&amp;"       "&amp;K25&amp;")"</f>
+        <v>print(    finishedsquarefeet12       Get from Calculated square feet)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" t="s">
+        <v>342</v>
+      </c>
+      <c r="L26" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26">
+        <v>925</v>
+      </c>
+      <c r="N26">
+        <v>9.25</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" ref="P26:P33" si="0">"print(    "&amp;L26&amp;"       "&amp;K26&amp;")"</f>
+        <v>print(    lotsizesquarefeet       Impute from address)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" t="s">
+        <v>341</v>
+      </c>
+      <c r="L27" t="s">
+        <v>302</v>
+      </c>
+      <c r="M27">
+        <v>3400</v>
+      </c>
+      <c r="N27">
+        <v>34</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="0"/>
+        <v>print(    unitcnt       Do not impute)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" t="s">
+        <v>339</v>
+      </c>
+      <c r="L28" t="s">
+        <v>303</v>
+      </c>
+      <c r="M28">
+        <v>3411</v>
+      </c>
+      <c r="N28">
+        <v>34.11</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="0"/>
+        <v>print(    propertyzoningdesc       Get from address)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" t="s">
+        <v>341</v>
+      </c>
+      <c r="L29" t="s">
+        <v>304</v>
+      </c>
+      <c r="M29">
+        <v>3530</v>
+      </c>
+      <c r="N29">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="0"/>
+        <v>print(    buildingqualitytypeid       Do not impute)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" t="s">
+        <v>341</v>
+      </c>
+      <c r="L30" t="s">
+        <v>305</v>
+      </c>
+      <c r="M30">
+        <v>3757</v>
+      </c>
+      <c r="N30">
+        <v>37.57</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="0"/>
+        <v>print(    heatingorsystemtypeid       Do not impute)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>339</v>
+      </c>
+      <c r="L31" t="s">
+        <v>306</v>
+      </c>
+      <c r="M31">
+        <v>6078</v>
+      </c>
+      <c r="N31">
+        <v>60.78</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="0"/>
+        <v>print(    regionidneighborhood       Get from address)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" t="s">
+        <v>341</v>
+      </c>
+      <c r="L32" t="s">
+        <v>307</v>
+      </c>
+      <c r="M32">
+        <v>6978</v>
+      </c>
+      <c r="N32">
+        <v>69.78</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="0"/>
+        <v>print(    garagecarcnt       Do not impute)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" t="s">
+        <v>186</v>
+      </c>
+      <c r="K33" t="s">
+        <v>341</v>
+      </c>
+      <c r="L33" t="s">
+        <v>308</v>
+      </c>
+      <c r="M33">
+        <v>6978</v>
+      </c>
+      <c r="N33">
+        <v>69.78</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="0"/>
+        <v>print(    garagetotalsqft       Do not impute)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>211</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B34" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" t="s">
+        <v>268</v>
+      </c>
+      <c r="L34" t="s">
+        <v>309</v>
+      </c>
+      <c r="M34">
+        <v>7219</v>
+      </c>
+      <c r="N34">
+        <v>72.19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" t="s">
+        <v>268</v>
+      </c>
+      <c r="L35" t="s">
+        <v>310</v>
+      </c>
+      <c r="M35">
+        <v>7655</v>
+      </c>
+      <c r="N35">
+        <v>76.55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" t="s">
+        <v>268</v>
+      </c>
+      <c r="L36" t="s">
+        <v>311</v>
+      </c>
+      <c r="M36">
+        <v>8162</v>
+      </c>
+      <c r="N36">
+        <v>81.62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>245</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" t="s">
+        <v>268</v>
+      </c>
+      <c r="L37" t="s">
+        <v>312</v>
+      </c>
+      <c r="M37">
+        <v>8275</v>
+      </c>
+      <c r="N37">
+        <v>82.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" t="s">
+        <v>268</v>
+      </c>
+      <c r="L38" t="s">
+        <v>313</v>
+      </c>
+      <c r="M38">
+        <v>8929</v>
+      </c>
+      <c r="N38">
+        <v>89.29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" t="s">
+        <v>268</v>
+      </c>
+      <c r="L39" t="s">
+        <v>314</v>
+      </c>
+      <c r="M39">
+        <v>8953</v>
+      </c>
+      <c r="N39">
+        <v>89.53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" t="s">
+        <v>268</v>
+      </c>
+      <c r="L40" t="s">
+        <v>315</v>
+      </c>
+      <c r="M40">
+        <v>9305</v>
+      </c>
+      <c r="N40">
+        <v>93.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" t="s">
+        <v>268</v>
+      </c>
+      <c r="L41" t="s">
+        <v>316</v>
+      </c>
+      <c r="M41">
+        <v>9305</v>
+      </c>
+      <c r="N41">
+        <v>93.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" t="s">
+        <v>209</v>
+      </c>
+      <c r="G42" t="s">
+        <v>268</v>
+      </c>
+      <c r="L42" t="s">
+        <v>317</v>
+      </c>
+      <c r="M42">
+        <v>9388</v>
+      </c>
+      <c r="N42">
+        <v>93.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" t="s">
+        <v>268</v>
+      </c>
+      <c r="L43" t="s">
+        <v>318</v>
+      </c>
+      <c r="M43">
+        <v>9746</v>
+      </c>
+      <c r="N43">
+        <v>97.46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" t="s">
+        <v>268</v>
+      </c>
+      <c r="G44" t="s">
+        <v>268</v>
+      </c>
+      <c r="L44" t="s">
+        <v>319</v>
+      </c>
+      <c r="M44">
+        <v>9816</v>
+      </c>
+      <c r="N44">
+        <v>98.16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" t="s">
+        <v>268</v>
+      </c>
+      <c r="G45" t="s">
+        <v>268</v>
+      </c>
+      <c r="L45" t="s">
+        <v>320</v>
+      </c>
+      <c r="M45">
+        <v>9816</v>
+      </c>
+      <c r="N45">
+        <v>98.16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>185</v>
+      </c>
+      <c r="G46" t="s">
+        <v>268</v>
+      </c>
+      <c r="L46" t="s">
+        <v>321</v>
+      </c>
+      <c r="M46">
+        <v>9827</v>
+      </c>
+      <c r="N46">
+        <v>98.27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
+        <v>268</v>
+      </c>
+      <c r="G47" t="s">
+        <v>268</v>
+      </c>
+      <c r="L47" t="s">
+        <v>322</v>
+      </c>
+      <c r="M47">
+        <v>9890</v>
+      </c>
+      <c r="N47">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>268</v>
+      </c>
+      <c r="G48" t="s">
+        <v>268</v>
+      </c>
+      <c r="L48" t="s">
+        <v>323</v>
+      </c>
+      <c r="M48">
+        <v>9894</v>
+      </c>
+      <c r="N48">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" t="s">
+        <v>202</v>
+      </c>
+      <c r="G49" t="s">
+        <v>268</v>
+      </c>
+      <c r="L49" t="s">
+        <v>324</v>
+      </c>
+      <c r="M49">
+        <v>9928</v>
+      </c>
+      <c r="N49">
+        <v>99.28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" t="s">
+        <v>268</v>
+      </c>
+      <c r="E50" t="s">
+        <v>272</v>
+      </c>
+      <c r="G50" t="s">
+        <v>268</v>
+      </c>
+      <c r="L50" t="s">
+        <v>325</v>
+      </c>
+      <c r="M50">
+        <v>9932</v>
+      </c>
+      <c r="N50">
+        <v>99.32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
+        <v>268</v>
+      </c>
+      <c r="G51" t="s">
+        <v>268</v>
+      </c>
+      <c r="L51" t="s">
+        <v>326</v>
+      </c>
+      <c r="M51">
+        <v>9937</v>
+      </c>
+      <c r="N51">
+        <v>99.37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" t="s">
+        <v>268</v>
+      </c>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" t="s">
+        <v>268</v>
+      </c>
+      <c r="L52" t="s">
+        <v>327</v>
+      </c>
+      <c r="M52">
+        <v>9961</v>
+      </c>
+      <c r="N52">
+        <v>99.61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="G53" t="s">
+        <v>268</v>
+      </c>
+      <c r="L53" t="s">
+        <v>328</v>
+      </c>
+      <c r="M53">
+        <v>9974</v>
+      </c>
+      <c r="N53">
+        <v>99.74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" t="s">
+        <v>268</v>
+      </c>
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" t="s">
+        <v>268</v>
+      </c>
+      <c r="L54" t="s">
+        <v>329</v>
+      </c>
+      <c r="M54">
+        <v>9980</v>
+      </c>
+      <c r="N54">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>212</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B55" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D55" t="s">
+        <v>268</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" t="s">
+        <v>268</v>
+      </c>
+      <c r="L55" t="s">
+        <v>330</v>
+      </c>
+      <c r="M55">
+        <v>9987</v>
+      </c>
+      <c r="N55">
+        <v>99.87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56" t="s">
+        <v>268</v>
+      </c>
+      <c r="L56" t="s">
+        <v>331</v>
+      </c>
+      <c r="M56">
+        <v>9988</v>
+      </c>
+      <c r="N56">
+        <v>99.88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G57" t="s">
+        <v>268</v>
+      </c>
+      <c r="L57" t="s">
+        <v>332</v>
+      </c>
+      <c r="M57">
+        <v>9989</v>
+      </c>
+      <c r="N57">
+        <v>99.89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>213</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B58" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>229</v>
-      </c>
-      <c r="B20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>230</v>
-      </c>
-      <c r="B21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>235</v>
-      </c>
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>236</v>
-      </c>
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>237</v>
-      </c>
-      <c r="B28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>238</v>
-      </c>
-      <c r="B29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>239</v>
-      </c>
-      <c r="B30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>240</v>
-      </c>
-      <c r="B31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>241</v>
-      </c>
-      <c r="B32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>242</v>
-      </c>
-      <c r="B33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>243</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>244</v>
-      </c>
-      <c r="B35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>245</v>
-      </c>
-      <c r="B36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>246</v>
-      </c>
-      <c r="B37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>247</v>
-      </c>
-      <c r="B38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>248</v>
-      </c>
-      <c r="B39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>249</v>
-      </c>
-      <c r="B40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>250</v>
-      </c>
-      <c r="B41" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>251</v>
-      </c>
-      <c r="B42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>252</v>
-      </c>
-      <c r="B43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>253</v>
-      </c>
-      <c r="B44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>254</v>
-      </c>
-      <c r="B45" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>255</v>
-      </c>
-      <c r="B46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="G58" t="s">
+        <v>268</v>
+      </c>
+      <c r="L58" t="s">
+        <v>333</v>
+      </c>
+      <c r="M58">
+        <v>9996</v>
+      </c>
+      <c r="N58">
+        <v>99.96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>256</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B59" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>257</v>
-      </c>
-      <c r="B48" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>258</v>
-      </c>
-      <c r="B49" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>259</v>
-      </c>
-      <c r="B50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>260</v>
-      </c>
-      <c r="B51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>261</v>
-      </c>
-      <c r="B52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>262</v>
-      </c>
-      <c r="B53" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>263</v>
-      </c>
-      <c r="B54" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>264</v>
-      </c>
-      <c r="B55" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>265</v>
-      </c>
-      <c r="B56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>266</v>
-      </c>
-      <c r="B57" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>267</v>
-      </c>
-      <c r="B58" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>210</v>
-      </c>
-      <c r="B59" t="s">
-        <v>205</v>
+      <c r="D59" t="s">
+        <v>268</v>
+      </c>
+      <c r="E59" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59" t="s">
+        <v>268</v>
+      </c>
+      <c r="L59" t="s">
+        <v>334</v>
+      </c>
+      <c r="M59">
+        <v>9996</v>
+      </c>
+      <c r="N59">
+        <v>99.96</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N59" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N59">
+      <sortCondition ref="N2:N59"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:N59">
+    <sortCondition ref="L2:L59"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -1668,7 +2803,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1676,7 +2811,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1684,7 +2819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1692,7 +2827,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1700,7 +2835,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1708,7 +2843,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1716,7 +2851,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1724,7 +2859,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1732,7 +2867,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1740,7 +2875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1748,7 +2883,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1756,7 +2891,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1764,7 +2899,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1772,7 +2907,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1780,7 +2915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1788,7 +2923,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1796,7 +2931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1804,7 +2939,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1812,7 +2947,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1820,7 +2955,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1828,7 +2963,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1836,7 +2971,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1844,7 +2979,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1852,7 +2987,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1860,7 +2995,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1874,20 +3009,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>153</v>
       </c>
@@ -1895,7 +3030,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>31</v>
       </c>
@@ -1903,7 +3038,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>46</v>
       </c>
@@ -1911,7 +3046,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>47</v>
       </c>
@@ -1919,7 +3054,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>246</v>
       </c>
@@ -1927,7 +3062,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>247</v>
       </c>
@@ -1935,7 +3070,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>248</v>
       </c>
@@ -1943,7 +3078,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>260</v>
       </c>
@@ -1951,7 +3086,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>261</v>
       </c>
@@ -1959,7 +3094,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>262</v>
       </c>
@@ -1967,7 +3102,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>263</v>
       </c>
@@ -1975,7 +3110,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>264</v>
       </c>
@@ -1983,7 +3118,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>265</v>
       </c>
@@ -1991,7 +3126,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>266</v>
       </c>
@@ -1999,7 +3134,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>267</v>
       </c>
@@ -2007,7 +3142,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>268</v>
       </c>
@@ -2015,7 +3150,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>269</v>
       </c>
@@ -2023,7 +3158,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>270</v>
       </c>
@@ -2031,7 +3166,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>271</v>
       </c>
@@ -2039,7 +3174,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>273</v>
       </c>
@@ -2047,7 +3182,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>274</v>
       </c>
@@ -2055,7 +3190,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>275</v>
       </c>
@@ -2063,7 +3198,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>276</v>
       </c>
@@ -2071,7 +3206,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>279</v>
       </c>
@@ -2079,7 +3214,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>290</v>
       </c>
@@ -2087,7 +3222,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>291</v>
       </c>
@@ -2101,16 +3236,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +3253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2126,7 +3261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2134,7 +3269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2142,7 +3277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2150,7 +3285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2158,7 +3293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2166,7 +3301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2174,7 +3309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2182,7 +3317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2190,7 +3325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2198,7 +3333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2206,7 +3341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2214,7 +3349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2222,7 +3357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2230,7 +3365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2238,7 +3373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2246,7 +3381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2254,7 +3389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2262,7 +3397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2270,7 +3405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2278,7 +3413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2286,7 +3421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2294,7 +3429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2302,7 +3437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2310,7 +3445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2318,7 +3453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2326,7 +3461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2334,7 +3469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2342,7 +3477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2350,7 +3485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2358,7 +3493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2366,7 +3501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2374,7 +3509,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2382,7 +3517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2390,7 +3525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2404,16 +3539,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2421,7 +3556,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2429,7 +3564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2437,7 +3572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2445,7 +3580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2453,7 +3588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2461,7 +3596,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2469,7 +3604,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2477,7 +3612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2485,7 +3620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2493,7 +3628,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2501,7 +3636,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2509,7 +3644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2517,7 +3652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2531,16 +3666,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2548,7 +3683,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2556,7 +3691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2564,7 +3699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2572,7 +3707,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2580,7 +3715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2588,7 +3723,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2596,7 +3731,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2604,7 +3739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2612,7 +3747,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2620,7 +3755,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2628,7 +3763,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2636,7 +3771,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2644,7 +3779,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2652,7 +3787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2660,7 +3795,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2668,7 +3803,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2676,7 +3811,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2684,7 +3819,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2692,7 +3827,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2700,7 +3835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2708,7 +3843,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2716,7 +3851,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2724,7 +3859,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2732,7 +3867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2740,7 +3875,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2748,7 +3883,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2756,7 +3891,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2770,16 +3905,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -2787,7 +3922,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2795,7 +3930,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2803,7 +3938,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2811,7 +3946,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2819,7 +3954,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2827,7 +3962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2835,7 +3970,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2843,7 +3978,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2851,7 +3986,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2859,7 +3994,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2867,7 +4002,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2875,7 +4010,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2883,7 +4018,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2891,7 +4026,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2899,7 +4034,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2907,7 +4042,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2915,7 +4050,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2923,7 +4058,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2937,18 +4072,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="125.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="125.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>194</v>
       </c>
@@ -2956,7 +4091,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2964,7 +4099,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2972,7 +4107,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2980,7 +4115,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2988,7 +4123,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
